--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -1560,7 +1560,7 @@
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="BM20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="BM23" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="BM25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="BM29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="BM40" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="BM42" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="BM56" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="BM68" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="BM70" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -15027,7 +15027,7 @@
       </c>
       <c r="BM72" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -17037,7 +17037,7 @@
       </c>
       <c r="BM82" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="BM84" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -18444,7 +18444,7 @@
       </c>
       <c r="BM89" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21861,7 +21861,7 @@
       </c>
       <c r="BM106" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -23268,7 +23268,7 @@
       </c>
       <c r="BM113" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="BM115" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -25479,7 +25479,7 @@
       </c>
       <c r="BM124" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="BM128" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -26685,7 +26685,7 @@
       </c>
       <c r="BM130" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -26886,7 +26886,7 @@
       </c>
       <c r="BM131" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="BM135" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -29901,7 +29901,7 @@
       </c>
       <c r="BM146" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -30906,7 +30906,7 @@
       </c>
       <c r="BM151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -34725,7 +34725,7 @@
       </c>
       <c r="BM170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="BM171" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -35328,7 +35328,7 @@
       </c>
       <c r="BM173" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -35730,7 +35730,7 @@
       </c>
       <c r="BM175" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -36735,7 +36735,7 @@
       </c>
       <c r="BM180" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -37539,7 +37539,7 @@
       </c>
       <c r="BM184" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -38142,7 +38142,7 @@
       </c>
       <c r="BM187" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -38343,7 +38343,7 @@
       </c>
       <c r="BM188" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -39147,7 +39147,7 @@
       </c>
       <c r="BM192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -39348,7 +39348,7 @@
       </c>
       <c r="BM193" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -39750,7 +39750,7 @@
       </c>
       <c r="BM195" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -39951,7 +39951,7 @@
       </c>
       <c r="BM196" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -40152,7 +40152,7 @@
       </c>
       <c r="BM197" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -43770,7 +43770,7 @@
       </c>
       <c r="BM215" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -45579,7 +45579,7 @@
       </c>
       <c r="BM224" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="BM225" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47388,7 +47388,7 @@
       </c>
       <c r="BM233" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -49800,7 +49800,7 @@
       </c>
       <c r="BM245" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -50001,7 +50001,7 @@
       </c>
       <c r="BM246" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="BM249" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -50805,7 +50805,7 @@
       </c>
       <c r="BM250" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -51207,7 +51207,7 @@
       </c>
       <c r="BM252" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -51810,7 +51810,7 @@
       </c>
       <c r="BM255" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -53016,7 +53016,7 @@
       </c>
       <c r="BM261" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -53418,7 +53418,7 @@
       </c>
       <c r="BM263" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -53820,7 +53820,7 @@
       </c>
       <c r="BM265" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -54624,7 +54624,7 @@
       </c>
       <c r="BM269" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -55629,7 +55629,7 @@
       </c>
       <c r="BM274" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -55830,7 +55830,7 @@
       </c>
       <c r="BM275" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -57237,7 +57237,7 @@
       </c>
       <c r="BM282" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -57639,7 +57639,7 @@
       </c>
       <c r="BM284" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -57840,7 +57840,7 @@
       </c>
       <c r="BM285" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -58242,7 +58242,7 @@
       </c>
       <c r="BM287" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -59046,7 +59046,7 @@
       </c>
       <c r="BM291" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -61056,7 +61056,7 @@
       </c>
       <c r="BM301" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -61458,7 +61458,7 @@
       </c>
       <c r="BM303" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -62865,7 +62865,7 @@
       </c>
       <c r="BM310" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -63267,7 +63267,7 @@
       </c>
       <c r="BM312" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -63669,7 +63669,7 @@
       </c>
       <c r="BM314" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -64272,7 +64272,7 @@
       </c>
       <c r="BM317" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -65478,7 +65478,7 @@
       </c>
       <c r="BM323" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -66483,7 +66483,7 @@
       </c>
       <c r="BM328" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -69297,7 +69297,7 @@
       </c>
       <c r="BM342" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -70101,7 +70101,7 @@
       </c>
       <c r="BM346" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -70704,7 +70704,7 @@
       </c>
       <c r="BM349" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -71709,7 +71709,7 @@
       </c>
       <c r="BM354" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -73317,7 +73317,7 @@
       </c>
       <c r="BM362" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -73719,7 +73719,7 @@
       </c>
       <c r="BM364" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
